--- a/biology/Botanique/Passerine_hérissée/Passerine_hérissée.xlsx
+++ b/biology/Botanique/Passerine_hérissée/Passerine_hérissée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Passerine_h%C3%A9riss%C3%A9e</t>
+          <t>Passerine_hérissée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymelaea hirsuta
 La passerine hérissée (Thymelaea hirsuta) est un arbrisseau de la famille des Thyméléacées, appelée aussi passerine hirsute ou mundulacciu en Corse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Passerine_h%C3%A9riss%C3%A9e</t>
+          <t>Passerine_hérissée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbrisseau aux rameaux garnis de petites feuilles imbriquées, de 3-8 × 1,5-4 mm, ovales à lancéolées, charnues ou coriaces, brillantes dont la face inférieure est blanche-tomenteuse.
 La plante porte sur des pieds différents soit des fleurs unisexuées soit des fleurs hermaphrodites. Ces fleurs sont rassemblées par 2 à 5 en glomérules. Les fruits sont des baies glabres, consommées par les animaux (dispersion zoochore). La floraison va d’octobre à avril.  C'est une plante entomogame.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Passerine_h%C3%A9riss%C3%A9e</t>
+          <t>Passerine_hérissée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient des diterpènes très toxiques. Un simple contact avec la peau ou les muqueuses peut provoquer une réaction inflammatoire intense. Ce sont de plus des agents potentiellement carcinogènes.
-Il a été isolé cinq 12-hydroxy-daphnanes diterpènes[1] des feuilles et des branches (gnidicine, gniditrine, genkwadaphnine etc.).
+Il a été isolé cinq 12-hydroxy-daphnanes diterpènes des feuilles et des branches (gnidicine, gniditrine, genkwadaphnine etc.).
 </t>
         </is>
       </c>
